--- a/public/template-excel/keuanganhaji/pengelolaan/sbssn_usd.xlsx
+++ b/public/template-excel/keuanganhaji/pengelolaan/sbssn_usd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROGRAMMING\BPKH\sampel data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBDIR\htdocs\sibpkh\public\template-excel\keuanganhaji\pengelolaan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919515E8-0362-4ADB-AC91-C09801EFD655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471C9A89-9BF6-4075-8B2D-AD43C702A3F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>TOTAL</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Maret</t>
+  </si>
+  <si>
+    <t>Nilai</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -160,6 +163,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -175,7 +189,7 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,6 +207,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="11" builtinId="3"/>
@@ -542,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,10 +574,11 @@
     <col min="2" max="2" width="23.140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -567,14 +588,17 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6">
+      <c r="F1" s="6">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -588,7 +612,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -602,7 +626,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>

--- a/public/template-excel/keuanganhaji/pengelolaan/sbssn_usd.xlsx
+++ b/public/template-excel/keuanganhaji/pengelolaan/sbssn_usd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBDIR\htdocs\sibpkh\public\template-excel\keuanganhaji\pengelolaan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471C9A89-9BF6-4075-8B2D-AD43C702A3F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43586D75-DC55-448B-94AF-2651B92E9D82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
     <t>Maret</t>
   </si>
   <si>
-    <t>Nilai</t>
+    <t>Nominal</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
